--- a/DA/age.xlsx
+++ b/DA/age.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niralirajpura/Desktop/DS/DA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75A9B6BF-EC6B-6C4B-B1BF-D4F3A820CFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EB22E7-A89E-0144-8580-CA700C147475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{82F4B04A-4DC3-0C43-864C-B58802421AE8}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
